--- a/PS-VRP/Dati_input/Commesse_da_tagliare.xlsx
+++ b/PS-VRP/Dati_input/Commesse_da_tagliare.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alecola\Desktop\PS-VRP\Dati_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\Dati_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F01B194-17C1-4076-B96F-B611950607CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5096292-6AEA-428C-9F00-B205024EB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$82</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -445,12 +448,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -465,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -479,9 +500,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -813,15 +843,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>243335</v>
       </c>
@@ -1029,7 +1060,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>243569</v>
       </c>
@@ -1127,7 +1158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>244023</v>
       </c>
@@ -1228,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>245623</v>
       </c>
@@ -1326,7 +1357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>245089</v>
       </c>
@@ -1421,7 +1452,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>250284</v>
       </c>
@@ -1516,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>251310</v>
       </c>
@@ -1560,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>252466</v>
       </c>
@@ -1652,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>251919</v>
       </c>
@@ -1750,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>252665</v>
       </c>
@@ -1848,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>251790</v>
       </c>
@@ -1946,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>243525</v>
       </c>
@@ -2044,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>243524</v>
       </c>
@@ -2145,7 +2176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>243529</v>
       </c>
@@ -2243,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>252723</v>
       </c>
@@ -2344,7 +2375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>252713</v>
       </c>
@@ -2445,7 +2476,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>252071</v>
       </c>
@@ -2546,8 +2577,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>252277</v>
       </c>
       <c r="B19" s="3">
@@ -2650,7 +2681,7 @@
         <v>40024</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>252364</v>
       </c>
@@ -2748,7 +2779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>252476</v>
       </c>
@@ -2846,7 +2877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>252207</v>
       </c>
@@ -2947,7 +2978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>244828</v>
       </c>
@@ -3048,7 +3079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>252237</v>
       </c>
@@ -3149,7 +3180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>252201</v>
       </c>
@@ -3250,7 +3281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>252063</v>
       </c>
@@ -3348,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>252371</v>
       </c>
@@ -3449,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>252686</v>
       </c>
@@ -3550,7 +3581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>252298</v>
       </c>
@@ -3651,7 +3682,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>252047</v>
       </c>
@@ -3746,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>252144</v>
       </c>
@@ -3841,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>252146</v>
       </c>
@@ -3936,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>252417</v>
       </c>
@@ -4025,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>252418</v>
       </c>
@@ -4114,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>241783</v>
       </c>
@@ -4212,8 +4243,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>252140</v>
       </c>
       <c r="B36" s="3">
@@ -4310,7 +4341,7 @@
         <v>40037</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>252547</v>
       </c>
@@ -4411,7 +4442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>252350</v>
       </c>
@@ -4512,7 +4543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>252638</v>
       </c>
@@ -4613,7 +4644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>252470</v>
       </c>
@@ -4711,7 +4742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>252790</v>
       </c>
@@ -4812,7 +4843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>252336</v>
       </c>
@@ -4913,7 +4944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>252334</v>
       </c>
@@ -5014,7 +5045,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>252345</v>
       </c>
@@ -5115,7 +5146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>252347</v>
       </c>
@@ -5216,8 +5247,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>252286</v>
       </c>
       <c r="B46" s="3">
@@ -5317,8 +5348,8 @@
         <v>40032</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>251849</v>
       </c>
       <c r="B47" s="3">
@@ -5418,7 +5449,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>252220</v>
       </c>
@@ -5519,7 +5550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>251674</v>
       </c>
@@ -5620,7 +5651,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>251632</v>
       </c>
@@ -5721,7 +5752,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>252085</v>
       </c>
@@ -5819,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>252087</v>
       </c>
@@ -5917,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>252402</v>
       </c>
@@ -6018,7 +6049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>252546</v>
       </c>
@@ -6119,7 +6150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>252230</v>
       </c>
@@ -6220,7 +6251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>252243</v>
       </c>
@@ -6321,7 +6352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>252244</v>
       </c>
@@ -6422,7 +6453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>252152</v>
       </c>
@@ -6523,7 +6554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>251798</v>
       </c>
@@ -6624,8 +6655,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>251231</v>
       </c>
       <c r="B60" s="3">
@@ -6728,7 +6759,7 @@
         <v>40034</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>252814</v>
       </c>
@@ -6829,8 +6860,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <v>252284</v>
       </c>
       <c r="B62" s="3">
@@ -6936,8 +6967,8 @@
         <v>40032</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <v>252285</v>
       </c>
       <c r="B63" s="3">
@@ -7043,7 +7074,7 @@
         <v>40032</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>252636</v>
       </c>
@@ -7144,7 +7175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>252652</v>
       </c>
@@ -7242,7 +7273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>251685</v>
       </c>
@@ -7343,7 +7374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>252549</v>
       </c>
@@ -7441,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>252978</v>
       </c>
@@ -7542,7 +7573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>252785</v>
       </c>
@@ -7643,7 +7674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>252784</v>
       </c>
@@ -7744,7 +7775,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>252783</v>
       </c>
@@ -7845,7 +7876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>252983</v>
       </c>
@@ -7889,7 +7920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>252157</v>
       </c>
@@ -7990,7 +8021,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>252980</v>
       </c>
@@ -8079,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>252997</v>
       </c>
@@ -8180,7 +8211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>252999</v>
       </c>
@@ -8278,7 +8309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>251926</v>
       </c>
@@ -8379,7 +8410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>251495</v>
       </c>
@@ -8480,7 +8511,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>252456</v>
       </c>
@@ -8581,7 +8612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>252899</v>
       </c>
@@ -8682,7 +8713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>252467</v>
       </c>
@@ -8780,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>252755</v>
       </c>
@@ -8882,6 +8913,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI82" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="33">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PS-VRP/Dati_input/Commesse_da_tagliare.xlsx
+++ b/PS-VRP/Dati_input/Commesse_da_tagliare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wikipedis\Documents\GitHub\progettoIS\PS-VRP\Dati_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frenc\Documents\GitHub\progettoIS\PS-VRP\Dati_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC206D-310E-4CD4-B94A-3656992DBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FF4CA-6D57-454E-903C-0043BF47DFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="133">
   <si>
     <t>commessa</t>
   </si>
@@ -431,7 +431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -447,13 +447,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -468,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -482,9 +508,41 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,7 +558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,11 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -932,45 +989,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>243335</v>
+        <v>245089</v>
       </c>
       <c r="B2" s="3">
-        <v>45502</v>
+        <v>45844</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="3">
-        <v>45506</v>
+        <v>46022</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>33004</v>
+        <v>122665</v>
       </c>
       <c r="G2" s="2">
-        <v>3746</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
+        <v>2679</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="K2" s="2">
-        <v>1230</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>58</v>
+        <v>1185</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>39</v>
@@ -988,7 +1039,7 @@
         <v>43</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>45</v>
@@ -1003,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>50</v>
@@ -1027,48 +1078,51 @@
         <v>56</v>
       </c>
       <c r="AF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>243569</v>
+        <v>252713</v>
       </c>
       <c r="B3" s="3">
-        <v>45561</v>
+        <v>45844</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="3">
-        <v>45551</v>
+        <v>45856</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>2601</v>
+        <v>108932</v>
       </c>
       <c r="G3" s="2">
-        <v>364</v>
+        <v>3000</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="2">
-        <v>570</v>
+        <v>209</v>
       </c>
       <c r="K3" s="2">
-        <v>1140</v>
+        <v>836</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>39</v>
@@ -1077,37 +1131,37 @@
         <v>40</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>52</v>
@@ -1125,48 +1179,48 @@
         <v>56</v>
       </c>
       <c r="AF3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="2">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>244023</v>
+        <v>251632</v>
       </c>
       <c r="B4" s="3">
-        <v>45552</v>
+        <v>45845</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3">
-        <v>45565</v>
+        <v>45845</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>997</v>
+        <v>70621</v>
       </c>
       <c r="G4" s="2">
-        <v>59</v>
+        <v>4000</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="2">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2">
-        <v>860</v>
+        <v>780</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>67</v>
@@ -1184,7 +1238,7 @@
         <v>42</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>44</v>
@@ -1193,10 +1247,10 @@
         <v>45</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>48</v>
@@ -1205,10 +1259,10 @@
         <v>49</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>52</v>
@@ -1229,45 +1283,48 @@
         <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <v>5</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>245623</v>
+        <v>252334</v>
       </c>
       <c r="B5" s="3">
-        <v>45844</v>
+        <v>45849</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3">
-        <v>45682</v>
+        <v>45842</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>26419</v>
+        <v>58391</v>
       </c>
       <c r="G5" s="2">
-        <v>1536</v>
+        <v>4192</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="2">
-        <v>840</v>
+        <v>200</v>
       </c>
       <c r="K5" s="2">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>39</v>
@@ -1276,7 +1333,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>42</v>
@@ -1285,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>45</v>
@@ -1300,7 +1357,7 @@
         <v>48</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>50</v>
@@ -1327,42 +1384,48 @@
         <v>0</v>
       </c>
       <c r="AG5" s="2">
-        <v>43</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>245089</v>
+        <v>252157</v>
       </c>
       <c r="B6" s="3">
-        <v>45844</v>
+        <v>45848</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3">
-        <v>46022</v>
+        <v>45826</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>122665</v>
+        <v>47619</v>
       </c>
       <c r="G6" s="2">
-        <v>2679</v>
+        <v>1000</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="2">
-        <v>395</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2">
-        <v>1185</v>
+        <v>688</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>39</v>
@@ -1371,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>42</v>
@@ -1380,7 +1443,7 @@
         <v>43</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>45</v>
@@ -1395,7 +1458,7 @@
         <v>48</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>50</v>
@@ -1419,48 +1482,51 @@
         <v>56</v>
       </c>
       <c r="AF6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="2">
-        <v>138</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>250284</v>
+        <v>252686</v>
       </c>
       <c r="B7" s="3">
-        <v>45733</v>
+        <v>45845</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="3">
-        <v>45728</v>
+        <v>45859</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>17562</v>
+        <v>39498</v>
       </c>
       <c r="G7" s="2">
-        <v>1000</v>
+        <v>3030</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="2">
-        <v>102</v>
+        <v>420</v>
       </c>
       <c r="K7" s="2">
-        <v>714</v>
+        <v>840</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>39</v>
@@ -1469,7 +1535,7 @@
         <v>40</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>42</v>
@@ -1478,7 +1544,7 @@
         <v>43</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>45</v>
@@ -1493,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>50</v>
@@ -1517,86 +1583,146 @@
         <v>56</v>
       </c>
       <c r="AF7" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>251310</v>
+        <v>252999</v>
       </c>
       <c r="B8" s="3">
-        <v>45770</v>
+        <v>45844</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3">
-        <v>45769</v>
+        <v>45875</v>
       </c>
       <c r="E8" s="2">
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>8611</v>
+        <v>39101</v>
       </c>
       <c r="G8" s="2">
-        <v>336</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="2">
-        <v>410</v>
+        <v>765</v>
       </c>
       <c r="K8" s="2">
-        <v>820</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>73</v>
+        <v>765</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="AF8" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>252466</v>
+        <v>251231</v>
       </c>
       <c r="B9" s="3">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>18947</v>
+        <v>37477</v>
       </c>
       <c r="G9" s="2">
-        <v>500</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>63</v>
+        <v>2637</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="J9" s="2">
+        <v>215</v>
       </c>
       <c r="K9" s="2">
-        <v>800</v>
+        <v>1075</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>78</v>
+        <v>113</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>39</v>
@@ -1605,37 +1731,37 @@
         <v>40</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>52</v>
@@ -1655,43 +1781,52 @@
       <c r="AF9" s="2">
         <v>0</v>
       </c>
+      <c r="AG9" s="2">
+        <v>160</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>40034</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>251919</v>
+        <v>243335</v>
       </c>
       <c r="B10" s="3">
-        <v>45845</v>
+        <v>45502</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3">
-        <v>45824</v>
+        <v>45506</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>16806</v>
+        <v>33004</v>
       </c>
       <c r="G10" s="2">
-        <v>1581</v>
+        <v>3746</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="2">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="K10" s="2">
-        <v>860</v>
+        <v>1230</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>59</v>
@@ -1712,7 +1847,7 @@
         <v>43</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>45</v>
@@ -1727,7 +1862,7 @@
         <v>48</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>50</v>
@@ -1751,45 +1886,51 @@
         <v>56</v>
       </c>
       <c r="AF10" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>252665</v>
+        <v>251790</v>
       </c>
       <c r="B11" s="3">
-        <v>45844</v>
+        <v>45845</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3">
-        <v>45902</v>
+        <v>45838</v>
       </c>
       <c r="E11" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>5865</v>
+        <v>28207</v>
       </c>
       <c r="G11" s="2">
-        <v>300</v>
+        <v>2029</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="2">
-        <v>775</v>
+        <v>480</v>
       </c>
       <c r="K11" s="2">
-        <v>775</v>
+        <v>960</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>39</v>
@@ -1798,7 +1939,7 @@
         <v>40</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>42</v>
@@ -1807,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>45</v>
@@ -1822,7 +1963,7 @@
         <v>48</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>50</v>
@@ -1846,51 +1987,45 @@
         <v>56</v>
       </c>
       <c r="AF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>251790</v>
+        <v>245623</v>
       </c>
       <c r="B12" s="3">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3">
-        <v>45838</v>
+        <v>45682</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>28207</v>
+        <v>26419</v>
       </c>
       <c r="G12" s="2">
-        <v>2029</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>36</v>
+        <v>1536</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="2">
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="K12" s="2">
-        <v>960</v>
+        <v>840</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>39</v>
@@ -1923,7 +2058,7 @@
         <v>48</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>50</v>
@@ -1947,48 +2082,48 @@
         <v>56</v>
       </c>
       <c r="AF12" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>243525</v>
+        <v>252652</v>
       </c>
       <c r="B13" s="3">
         <v>45845</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3">
-        <v>45842</v>
+        <v>45855</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>15598</v>
+        <v>22321</v>
       </c>
       <c r="G13" s="2">
-        <v>1122</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="2">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="K13" s="2">
-        <v>960</v>
+        <v>560</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>39</v>
@@ -1997,7 +2132,7 @@
         <v>40</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>42</v>
@@ -2006,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>45</v>
@@ -2045,48 +2180,51 @@
         <v>56</v>
       </c>
       <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>252899</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45849</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45862</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>243524</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45845</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45842</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
       <c r="F14" s="2">
-        <v>7994</v>
+        <v>21668</v>
       </c>
       <c r="G14" s="2">
-        <v>575</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="2">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="K14" s="2">
-        <v>960</v>
+        <v>690</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>39</v>
@@ -2095,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>42</v>
@@ -2104,7 +2242,7 @@
         <v>43</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>45</v>
@@ -2143,51 +2281,45 @@
         <v>56</v>
       </c>
       <c r="AF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>243529</v>
+        <v>252466</v>
       </c>
       <c r="B15" s="3">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3">
-        <v>45842</v>
+        <v>45848</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>15598</v>
+        <v>18947</v>
       </c>
       <c r="G15" s="2">
-        <v>1122</v>
+        <v>500</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>39</v>
@@ -2196,37 +2328,37 @@
         <v>40</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>52</v>
@@ -2244,10 +2376,10 @@
         <v>56</v>
       </c>
       <c r="AF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>252723</v>
       </c>
@@ -2348,27 +2480,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>252713</v>
+        <v>251674</v>
       </c>
       <c r="B17" s="3">
-        <v>45844</v>
+        <v>45842</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D17" s="3">
-        <v>45856</v>
+        <v>45845</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
-        <v>108932</v>
+        <v>17655</v>
       </c>
       <c r="G17" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>87</v>
@@ -2377,13 +2509,13 @@
         <v>37</v>
       </c>
       <c r="J17" s="2">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2">
-        <v>836</v>
+        <v>780</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>67</v>
@@ -2395,13 +2527,13 @@
         <v>40</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>44</v>
@@ -2410,10 +2542,10 @@
         <v>45</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>48</v>
@@ -2422,10 +2554,10 @@
         <v>49</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>52</v>
@@ -2443,51 +2575,48 @@
         <v>56</v>
       </c>
       <c r="AF17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="2">
-        <v>244</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>252071</v>
+        <v>250284</v>
       </c>
       <c r="B18" s="3">
-        <v>45838</v>
+        <v>45733</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3">
-        <v>45820</v>
+        <v>45728</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2">
-        <v>5488</v>
+        <v>17562</v>
       </c>
       <c r="G18" s="2">
-        <v>251</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="2">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2">
-        <v>1004</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>68</v>
+        <v>714</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>39</v>
@@ -2496,7 +2625,7 @@
         <v>40</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>42</v>
@@ -2505,7 +2634,7 @@
         <v>43</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>45</v>
@@ -2544,13 +2673,10 @@
         <v>56</v>
       </c>
       <c r="AF18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>252277</v>
       </c>
@@ -2654,39 +2780,42 @@
         <v>40024</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>252364</v>
+        <v>252456</v>
       </c>
       <c r="B20" s="3">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="3">
-        <v>45835</v>
+        <v>45848</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2">
-        <v>11346</v>
+        <v>17335</v>
       </c>
       <c r="G20" s="2">
-        <v>500</v>
+        <v>800</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K20" s="2">
-        <v>546</v>
+        <v>696</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>67</v>
@@ -2749,45 +2878,48 @@
         <v>0</v>
       </c>
       <c r="AG20" s="2">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>252476</v>
+        <v>251919</v>
       </c>
       <c r="B21" s="3">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3">
-        <v>45845</v>
+        <v>45824</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>8681</v>
+        <v>16806</v>
       </c>
       <c r="G21" s="2">
-        <v>500</v>
+        <v>1581</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="2">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="K21" s="2">
-        <v>690</v>
+        <v>860</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>39</v>
@@ -2796,7 +2928,7 @@
         <v>40</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>42</v>
@@ -2805,7 +2937,7 @@
         <v>43</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>45</v>
@@ -2820,7 +2952,7 @@
         <v>48</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>50</v>
@@ -2844,51 +2976,42 @@
         <v>56</v>
       </c>
       <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>252207</v>
+        <v>252140</v>
       </c>
       <c r="B22" s="3">
         <v>45845</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3">
-        <v>45834</v>
+        <v>45845</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>6186</v>
+        <v>15689</v>
       </c>
       <c r="G22" s="2">
-        <v>479</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>57</v>
+        <v>1236</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="2">
-        <v>415</v>
+        <v>286</v>
       </c>
       <c r="K22" s="2">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>39</v>
@@ -2897,7 +3020,7 @@
         <v>40</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>42</v>
@@ -2906,7 +3029,7 @@
         <v>43</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>45</v>
@@ -2945,51 +3068,54 @@
         <v>56</v>
       </c>
       <c r="AF22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>40037</v>
       </c>
     </row>
-    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>244828</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>243525</v>
+      </c>
+      <c r="B23" s="6">
         <v>45845</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3">
-        <v>45845</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="6">
+        <v>45842</v>
+      </c>
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
-        <v>5203</v>
+      <c r="F23" s="5">
+        <v>15598</v>
       </c>
       <c r="G23" s="2">
-        <v>318</v>
+        <v>1122</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="2">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K23" s="2">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>39</v>
@@ -3004,7 +3130,7 @@
         <v>42</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>69</v>
@@ -3013,7 +3139,7 @@
         <v>45</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>47</v>
@@ -3022,7 +3148,7 @@
         <v>48</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>50</v>
@@ -3048,49 +3174,46 @@
       <c r="AF23" s="2">
         <v>1</v>
       </c>
-      <c r="AG23" s="2">
-        <v>18</v>
-      </c>
     </row>
-    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>252237</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>243529</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45845</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6">
         <v>45842</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45839</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
-        <v>10194</v>
+      <c r="F24" s="5">
+        <v>15598</v>
       </c>
       <c r="G24" s="2">
-        <v>623</v>
+        <v>1122</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J24" s="2">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K24" s="2">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>39</v>
@@ -3105,7 +3228,7 @@
         <v>42</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>69</v>
@@ -3114,7 +3237,7 @@
         <v>45</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>47</v>
@@ -3123,7 +3246,7 @@
         <v>48</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>50</v>
@@ -3149,46 +3272,43 @@
       <c r="AF24" s="2">
         <v>1</v>
       </c>
-      <c r="AG24" s="2">
-        <v>36</v>
-      </c>
     </row>
-    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>252201</v>
+        <v>251798</v>
       </c>
       <c r="B25" s="3">
-        <v>45845</v>
+        <v>45843</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D25" s="3">
-        <v>45828</v>
+        <v>45853</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>4093</v>
+        <v>14795</v>
       </c>
       <c r="G25" s="2">
-        <v>154</v>
+        <v>784</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K25" s="2">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>64</v>
@@ -3248,51 +3368,51 @@
         <v>56</v>
       </c>
       <c r="AF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="2">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>252063</v>
+        <v>252336</v>
       </c>
       <c r="B26" s="3">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="3">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
-        <v>9593</v>
+        <v>14433</v>
       </c>
       <c r="G26" s="2">
-        <v>609</v>
+        <v>1048</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="2">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="K26" s="2">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>39</v>
@@ -3301,7 +3421,7 @@
         <v>40</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>42</v>
@@ -3310,7 +3430,7 @@
         <v>43</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>45</v>
@@ -3349,48 +3469,51 @@
         <v>56</v>
       </c>
       <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>252755</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45848</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45855</v>
+      </c>
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>252371</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45845</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45838</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
       <c r="F27" s="2">
-        <v>6005</v>
+        <v>13149</v>
       </c>
       <c r="G27" s="2">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J27" s="2">
-        <v>385</v>
+        <v>190</v>
       </c>
       <c r="K27" s="2">
-        <v>1155</v>
+        <v>570</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>39</v>
@@ -3399,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>42</v>
@@ -3408,7 +3531,7 @@
         <v>43</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>45</v>
@@ -3423,7 +3546,7 @@
         <v>48</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>50</v>
@@ -3447,15 +3570,15 @@
         <v>56</v>
       </c>
       <c r="AF27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>252686</v>
+        <v>252244</v>
       </c>
       <c r="B28" s="3">
         <v>45845</v>
@@ -3464,34 +3587,34 @@
         <v>35</v>
       </c>
       <c r="D28" s="3">
-        <v>45859</v>
+        <v>45845</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>39498</v>
+        <v>12909</v>
       </c>
       <c r="G28" s="2">
-        <v>3030</v>
+        <v>614</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="2">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="K28" s="2">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>39</v>
@@ -3524,7 +3647,7 @@
         <v>48</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>50</v>
@@ -3551,48 +3674,48 @@
         <v>1</v>
       </c>
       <c r="AG28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>251685</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45846</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45853</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>11851</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1100</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>252298</v>
-      </c>
-      <c r="B29" s="3">
-        <v>45845</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45831</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2">
-        <v>8492</v>
-      </c>
-      <c r="G29" s="2">
-        <v>460</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J29" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K29" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>39</v>
@@ -3601,7 +3724,7 @@
         <v>40</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>42</v>
@@ -3610,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>45</v>
@@ -3649,45 +3772,48 @@
         <v>56</v>
       </c>
       <c r="AF29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="2">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>252047</v>
+        <v>252243</v>
       </c>
       <c r="B30" s="3">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3">
-        <v>45837</v>
+        <v>45852</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>8506</v>
+        <v>11605</v>
       </c>
       <c r="G30" s="2">
-        <v>601</v>
+        <v>552</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="2">
-        <v>470</v>
+        <v>285</v>
       </c>
       <c r="K30" s="2">
-        <v>940</v>
+        <v>855</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>64</v>
@@ -3749,43 +3875,46 @@
       <c r="AF30" s="2">
         <v>1</v>
       </c>
+      <c r="AG30" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>252144</v>
+        <v>252364</v>
       </c>
       <c r="B31" s="3">
-        <v>45841</v>
+        <v>45846</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3">
-        <v>45837</v>
+        <v>45835</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
-        <v>6496</v>
+        <v>11346</v>
       </c>
       <c r="G31" s="2">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="2">
-        <v>470</v>
+        <v>182</v>
       </c>
       <c r="K31" s="2">
-        <v>940</v>
+        <v>546</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>39</v>
@@ -3794,7 +3923,7 @@
         <v>40</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>42</v>
@@ -3803,7 +3932,7 @@
         <v>43</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>45</v>
@@ -3842,45 +3971,51 @@
         <v>56</v>
       </c>
       <c r="AF31" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>252146</v>
+        <v>252549</v>
       </c>
       <c r="B32" s="3">
-        <v>45841</v>
+        <v>45847</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3">
-        <v>45837</v>
+        <v>45858</v>
       </c>
       <c r="E32" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2">
-        <v>7996</v>
+        <v>11111</v>
       </c>
       <c r="G32" s="2">
-        <v>565</v>
+        <v>500</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J32" s="2">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="K32" s="2">
-        <v>940</v>
+        <v>580</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>39</v>
@@ -3889,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>42</v>
@@ -3898,7 +4033,7 @@
         <v>43</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>45</v>
@@ -3937,39 +4072,48 @@
         <v>56</v>
       </c>
       <c r="AF32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>252417</v>
+        <v>252347</v>
       </c>
       <c r="B33" s="3">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3">
-        <v>45838</v>
+        <v>45846</v>
       </c>
       <c r="E33" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>4711</v>
+        <v>11074</v>
       </c>
       <c r="G33" s="2">
-        <v>222</v>
+        <v>570</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="J33" s="2">
+        <v>650</v>
       </c>
       <c r="K33" s="2">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>39</v>
@@ -3978,37 +4122,37 @@
         <v>40</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="W33" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="AA33" s="4" t="s">
         <v>52</v>
@@ -4028,37 +4172,49 @@
       <c r="AF33" s="2">
         <v>0</v>
       </c>
+      <c r="AG33" s="2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>252418</v>
+        <v>252237</v>
       </c>
       <c r="B34" s="3">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="E34" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>8985</v>
+        <v>10194</v>
       </c>
       <c r="G34" s="2">
-        <v>285</v>
+        <v>623</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="J34" s="2">
+        <v>360</v>
       </c>
       <c r="K34" s="2">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>38</v>
+        <v>102</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>39</v>
@@ -4067,37 +4223,37 @@
         <v>40</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="W34" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="AA34" s="4" t="s">
         <v>52</v>
@@ -4115,48 +4271,51 @@
         <v>56</v>
       </c>
       <c r="AF34" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>241783</v>
+        <v>252547</v>
       </c>
       <c r="B35" s="3">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3">
-        <v>45905</v>
+        <v>45842</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>5199</v>
+        <v>9740</v>
       </c>
       <c r="G35" s="2">
-        <v>374</v>
+        <v>660</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J35" s="2">
-        <v>480</v>
+        <v>216</v>
       </c>
       <c r="K35" s="2">
-        <v>960</v>
+        <v>864</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>39</v>
@@ -4165,7 +4324,7 @@
         <v>40</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>42</v>
@@ -4174,7 +4333,7 @@
         <v>43</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>45</v>
@@ -4213,42 +4372,51 @@
         <v>56</v>
       </c>
       <c r="AF35" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>252140</v>
+        <v>252467</v>
       </c>
       <c r="B36" s="3">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="3">
-        <v>45845</v>
+        <v>45855</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>15689</v>
+        <v>9740</v>
       </c>
       <c r="G36" s="2">
-        <v>1236</v>
+        <v>660</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="2">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="K36" s="2">
-        <v>858</v>
+        <v>800</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>39</v>
@@ -4307,34 +4475,28 @@
       <c r="AF36" s="2">
         <v>0</v>
       </c>
-      <c r="AH36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI36" s="2">
-        <v>40037</v>
-      </c>
     </row>
-    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>252547</v>
+        <v>252220</v>
       </c>
       <c r="B37" s="3">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="3">
-        <v>45842</v>
+        <v>45824</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2">
-        <v>9740</v>
+        <v>9662</v>
       </c>
       <c r="G37" s="2">
-        <v>660</v>
+        <v>500</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>57</v>
@@ -4343,13 +4505,13 @@
         <v>37</v>
       </c>
       <c r="J37" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K37" s="2">
-        <v>864</v>
+        <v>675</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>67</v>
@@ -4412,48 +4574,48 @@
         <v>0</v>
       </c>
       <c r="AG37" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>252350</v>
+        <v>252063</v>
       </c>
       <c r="B38" s="3">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="3">
-        <v>45846</v>
+        <v>45839</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>6226</v>
+        <v>9593</v>
       </c>
       <c r="G38" s="2">
-        <v>320</v>
+        <v>609</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="2">
-        <v>650</v>
+        <v>420</v>
       </c>
       <c r="K38" s="2">
-        <v>650</v>
+        <v>840</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>39</v>
@@ -4462,7 +4624,7 @@
         <v>40</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>42</v>
@@ -4471,7 +4633,7 @@
         <v>43</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>45</v>
@@ -4486,7 +4648,7 @@
         <v>48</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="Y38" s="4" t="s">
         <v>50</v>
@@ -4510,48 +4672,45 @@
         <v>56</v>
       </c>
       <c r="AF38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>252638</v>
+        <v>251926</v>
       </c>
       <c r="B39" s="3">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="3">
-        <v>45844</v>
+        <v>45847</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>7379</v>
+        <v>9470</v>
       </c>
       <c r="G39" s="2">
         <v>500</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K39" s="2">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>67</v>
@@ -4614,45 +4773,39 @@
         <v>0</v>
       </c>
       <c r="AG39" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>252470</v>
+        <v>252418</v>
       </c>
       <c r="B40" s="3">
-        <v>45849</v>
+        <v>45841</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D40" s="3">
-        <v>45842</v>
+        <v>45838</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F40" s="2">
-        <v>7500</v>
+        <v>8985</v>
       </c>
       <c r="G40" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="K40" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>39</v>
@@ -4661,37 +4814,37 @@
         <v>40</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="W40" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AA40" s="4" t="s">
         <v>52</v>
@@ -4709,80 +4862,75 @@
         <v>56</v>
       </c>
       <c r="AF40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>252790</v>
-      </c>
-      <c r="B41" s="3">
-        <v>45848</v>
-      </c>
-      <c r="C41" s="4" t="s">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>252476</v>
+      </c>
+      <c r="B41" s="9">
+        <v>45846</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="3">
-        <v>45863</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1453</v>
-      </c>
-      <c r="G41" s="2">
-        <v>106</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="D41" s="9">
+        <v>45845</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8">
+        <v>8681</v>
+      </c>
+      <c r="G41" s="8">
+        <v>500</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="2">
-        <v>200</v>
-      </c>
-      <c r="K41" s="2">
-        <v>800</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M41" s="4" t="s">
+      <c r="J41" s="8">
+        <v>345</v>
+      </c>
+      <c r="K41" s="8">
+        <v>690</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="R41" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="S41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T41" s="4" t="s">
+      <c r="T41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="U41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V41" s="4" t="s">
+      <c r="V41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="W41" s="10" t="s">
         <v>48</v>
       </c>
       <c r="X41" s="4" t="s">
@@ -4813,77 +4961,77 @@
         <v>0</v>
       </c>
       <c r="AG41" s="2">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>252336</v>
-      </c>
-      <c r="B42" s="3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>251495</v>
+      </c>
+      <c r="B42" s="9">
         <v>45848</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="3">
-        <v>45842</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>14433</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1048</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="D42" s="9">
+        <v>45847</v>
+      </c>
+      <c r="E42" s="8">
+        <v>3</v>
+      </c>
+      <c r="F42" s="8">
+        <v>8681</v>
+      </c>
+      <c r="G42" s="8">
+        <v>500</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="2">
-        <v>200</v>
-      </c>
-      <c r="K42" s="2">
-        <v>800</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="J42" s="8">
+        <v>175</v>
+      </c>
+      <c r="K42" s="8">
+        <v>700</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="S42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="T42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="U42" s="4" t="s">
+      <c r="U42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="V42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="W42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="X42" s="4" t="s">
@@ -4914,149 +5062,89 @@
         <v>0</v>
       </c>
       <c r="AG42" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>252334</v>
+        <v>251310</v>
       </c>
       <c r="B43" s="3">
-        <v>45849</v>
+        <v>45770</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>45842</v>
+        <v>45769</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>58391</v>
+        <v>8611</v>
       </c>
       <c r="G43" s="2">
-        <v>4192</v>
+        <v>336</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J43" s="2">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="K43" s="2">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE43" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AF43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>352</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>252345</v>
+        <v>252047</v>
       </c>
       <c r="B44" s="3">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3">
-        <v>45846</v>
+        <v>45837</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2">
-        <v>5199</v>
+        <v>8506</v>
       </c>
       <c r="G44" s="2">
-        <v>330</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>63</v>
+        <v>601</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J44" s="2">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="K44" s="2">
-        <v>810</v>
+        <v>940</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>39</v>
@@ -5065,7 +5153,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>42</v>
@@ -5074,7 +5162,7 @@
         <v>43</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>45</v>
@@ -5113,51 +5201,48 @@
         <v>56</v>
       </c>
       <c r="AF44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>252347</v>
+        <v>252298</v>
       </c>
       <c r="B45" s="3">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D45" s="3">
-        <v>45846</v>
+        <v>45831</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2">
-        <v>11074</v>
+        <v>8492</v>
       </c>
       <c r="G45" s="2">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J45" s="2">
-        <v>650</v>
+        <v>140</v>
       </c>
       <c r="K45" s="2">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>39</v>
@@ -5166,7 +5251,7 @@
         <v>40</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>42</v>
@@ -5175,7 +5260,7 @@
         <v>43</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>45</v>
@@ -5190,7 +5275,7 @@
         <v>48</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="Y45" s="4" t="s">
         <v>50</v>
@@ -5214,48 +5299,48 @@
         <v>56</v>
       </c>
       <c r="AF45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="2">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>252286</v>
+        <v>252146</v>
       </c>
       <c r="B46" s="3">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D46" s="3">
-        <v>45840</v>
+        <v>45837</v>
       </c>
       <c r="E46" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2">
-        <v>6152</v>
+        <v>7996</v>
       </c>
       <c r="G46" s="2">
-        <v>300</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>57</v>
+        <v>565</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="2">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="K46" s="2">
-        <v>570</v>
+        <v>940</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>39</v>
@@ -5264,7 +5349,7 @@
         <v>40</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>42</v>
@@ -5273,7 +5358,7 @@
         <v>43</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>45</v>
@@ -5312,51 +5397,48 @@
         <v>56</v>
       </c>
       <c r="AF46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>243524</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45845</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45842</v>
+      </c>
+      <c r="E47" s="2">
         <v>0</v>
       </c>
-      <c r="AH46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI46" s="2">
-        <v>40032</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>251849</v>
-      </c>
-      <c r="B47" s="3">
-        <v>45846</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45833</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
       <c r="F47" s="2">
-        <v>4006</v>
+        <v>7994</v>
       </c>
       <c r="G47" s="2">
-        <v>250</v>
+        <v>575</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="2">
-        <v>192</v>
+        <v>480</v>
       </c>
       <c r="K47" s="2">
-        <v>768</v>
+        <v>960</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>39</v>
@@ -5365,7 +5447,7 @@
         <v>40</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>42</v>
@@ -5374,7 +5456,7 @@
         <v>43</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>45</v>
@@ -5413,54 +5495,51 @@
         <v>56</v>
       </c>
       <c r="AF47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI47" s="2">
-        <v>40042</v>
+        <v>1</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>252220</v>
+        <v>252230</v>
       </c>
       <c r="B48" s="3">
-        <v>45846</v>
+        <v>45840</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D48" s="3">
-        <v>45824</v>
+        <v>45821</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2">
-        <v>9662</v>
+        <v>7575</v>
       </c>
       <c r="G48" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="2">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="K48" s="2">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>39</v>
@@ -5469,7 +5548,7 @@
         <v>40</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>42</v>
@@ -5478,7 +5557,7 @@
         <v>43</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>45</v>
@@ -5517,48 +5596,45 @@
         <v>56</v>
       </c>
       <c r="AF48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>251674</v>
+        <v>252470</v>
       </c>
       <c r="B49" s="3">
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="3">
-        <v>45845</v>
+        <v>45842</v>
       </c>
       <c r="E49" s="2">
         <v>3</v>
       </c>
       <c r="F49" s="2">
-        <v>17655</v>
+        <v>7500</v>
       </c>
       <c r="G49" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J49" s="2">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K49" s="2">
-        <v>780</v>
+        <v>480</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>67</v>
@@ -5576,7 +5652,7 @@
         <v>42</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>44</v>
@@ -5585,10 +5661,10 @@
         <v>45</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="W49" s="4" t="s">
         <v>48</v>
@@ -5597,10 +5673,10 @@
         <v>49</v>
       </c>
       <c r="Y49" s="4" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="AA49" s="4" t="s">
         <v>52</v>
@@ -5621,45 +5697,45 @@
         <v>0</v>
       </c>
       <c r="AG49" s="2">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>251632</v>
+        <v>252638</v>
       </c>
       <c r="B50" s="3">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="3">
-        <v>45845</v>
+        <v>45844</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>70621</v>
+        <v>7379</v>
       </c>
       <c r="G50" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="2">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="K50" s="2">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>67</v>
@@ -5677,7 +5753,7 @@
         <v>42</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>44</v>
@@ -5686,10 +5762,10 @@
         <v>45</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="W50" s="4" t="s">
         <v>48</v>
@@ -5698,10 +5774,10 @@
         <v>49</v>
       </c>
       <c r="Y50" s="4" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="AA50" s="4" t="s">
         <v>52</v>
@@ -5722,12 +5798,12 @@
         <v>0</v>
       </c>
       <c r="AG50" s="2">
-        <v>403</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>252085</v>
+        <v>252785</v>
       </c>
       <c r="B51" s="3">
         <v>45846</v>
@@ -5736,28 +5812,28 @@
         <v>75</v>
       </c>
       <c r="D51" s="3">
-        <v>45826</v>
+        <v>45862</v>
       </c>
       <c r="E51" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>3426</v>
+        <v>6690</v>
       </c>
       <c r="G51" s="2">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J51" s="2">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="K51" s="2">
-        <v>900</v>
+        <v>425</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>101</v>
@@ -5820,48 +5896,51 @@
         <v>56</v>
       </c>
       <c r="AF51" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>252087</v>
+        <v>252546</v>
       </c>
       <c r="B52" s="3">
         <v>45845</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D52" s="3">
-        <v>45837</v>
+        <v>45839</v>
       </c>
       <c r="E52" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>4260</v>
+        <v>6556</v>
       </c>
       <c r="G52" s="2">
-        <v>200</v>
+        <v>548</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J52" s="2">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="K52" s="2">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>39</v>
@@ -5870,7 +5949,7 @@
         <v>40</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>42</v>
@@ -5879,7 +5958,7 @@
         <v>43</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>45</v>
@@ -5920,43 +5999,43 @@
       <c r="AF52" s="2">
         <v>1</v>
       </c>
+      <c r="AG52" s="2">
+        <v>24</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>252402</v>
+        <v>252144</v>
       </c>
       <c r="B53" s="3">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3">
-        <v>45835</v>
+        <v>45837</v>
       </c>
       <c r="E53" s="2">
         <v>6</v>
       </c>
       <c r="F53" s="2">
-        <v>3009</v>
+        <v>6496</v>
       </c>
       <c r="G53" s="2">
-        <v>174</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>103</v>
+        <v>459</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="2">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="K53" s="2">
-        <v>1020</v>
+        <v>940</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>64</v>
@@ -6018,49 +6097,46 @@
       <c r="AF53" s="2">
         <v>1</v>
       </c>
-      <c r="AG53" s="2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>252546</v>
+        <v>252350</v>
       </c>
       <c r="B54" s="3">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D54" s="3">
-        <v>45839</v>
+        <v>45846</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>6556</v>
+        <v>6226</v>
       </c>
       <c r="G54" s="2">
-        <v>548</v>
+        <v>320</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="2">
-        <v>420</v>
+        <v>650</v>
       </c>
       <c r="K54" s="2">
-        <v>840</v>
+        <v>650</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>39</v>
@@ -6069,7 +6145,7 @@
         <v>40</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>42</v>
@@ -6078,7 +6154,7 @@
         <v>43</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>45</v>
@@ -6093,7 +6169,7 @@
         <v>48</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="Y54" s="4" t="s">
         <v>50</v>
@@ -6117,48 +6193,48 @@
         <v>56</v>
       </c>
       <c r="AF54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>252230</v>
+        <v>252207</v>
       </c>
       <c r="B55" s="3">
-        <v>45840</v>
+        <v>45845</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="3">
-        <v>45821</v>
+        <v>45834</v>
       </c>
       <c r="E55" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>7575</v>
+        <v>6186</v>
       </c>
       <c r="G55" s="2">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J55" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="K55" s="2">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>64</v>
@@ -6221,244 +6297,254 @@
         <v>1</v>
       </c>
       <c r="AG55" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>252243</v>
-      </c>
-      <c r="B56" s="3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>252286</v>
+      </c>
+      <c r="B56" s="13">
         <v>45845</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="13">
+        <v>45840</v>
+      </c>
+      <c r="E56" s="12">
+        <v>3</v>
+      </c>
+      <c r="F56" s="12">
+        <v>6152</v>
+      </c>
+      <c r="G56" s="12">
+        <v>300</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="12">
+        <v>190</v>
+      </c>
+      <c r="K56" s="12">
+        <v>570</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q56" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V56" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W56" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="X56" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y56" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA56" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB56" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC56" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE56" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI56" s="12">
+        <v>40032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>252284</v>
+      </c>
+      <c r="B57" s="13">
+        <v>45846</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="13">
+        <v>45840</v>
+      </c>
+      <c r="E57" s="12">
+        <v>3</v>
+      </c>
+      <c r="F57" s="12">
+        <v>6152</v>
+      </c>
+      <c r="G57" s="12">
+        <v>300</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="12">
+        <v>190</v>
+      </c>
+      <c r="K57" s="12">
+        <v>570</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V57" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W57" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="X57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y57" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z57" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA57" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC57" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE57" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="12">
+        <v>33</v>
+      </c>
+      <c r="AH57" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI57" s="12">
+        <v>40032</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>252814</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45846</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3">
         <v>45852</v>
       </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>11605</v>
-      </c>
-      <c r="G56" s="2">
-        <v>552</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="2">
-        <v>285</v>
-      </c>
-      <c r="K56" s="2">
-        <v>855</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE56" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF56" s="2">
+      <c r="E58" s="2">
         <v>1</v>
       </c>
-      <c r="AG56" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>252244</v>
-      </c>
-      <c r="B57" s="3">
-        <v>45845</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45845</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>12909</v>
-      </c>
-      <c r="G57" s="2">
-        <v>614</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J57" s="2">
-        <v>285</v>
-      </c>
-      <c r="K57" s="2">
-        <v>855</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T57" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>252152</v>
-      </c>
-      <c r="B58" s="3">
-        <v>45842</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="3">
-        <v>45828</v>
-      </c>
-      <c r="E58" s="2">
-        <v>3</v>
-      </c>
       <c r="F58" s="2">
-        <v>3284</v>
+        <v>6010</v>
       </c>
       <c r="G58" s="2">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="2">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="K58" s="2">
-        <v>1005</v>
+        <v>615</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>89</v>
@@ -6521,48 +6607,48 @@
         <v>56</v>
       </c>
       <c r="AF58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>251798</v>
+        <v>252371</v>
       </c>
       <c r="B59" s="3">
-        <v>45843</v>
+        <v>45845</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D59" s="3">
-        <v>45853</v>
+        <v>45838</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>14795</v>
+        <v>6005</v>
       </c>
       <c r="G59" s="2">
-        <v>784</v>
+        <v>462</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J59" s="2">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="K59" s="2">
-        <v>750</v>
+        <v>1155</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>64</v>
@@ -6583,7 +6669,7 @@
         <v>43</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="T59" s="4" t="s">
         <v>45</v>
@@ -6598,7 +6684,7 @@
         <v>48</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="Y59" s="4" t="s">
         <v>50</v>
@@ -6622,45 +6708,45 @@
         <v>56</v>
       </c>
       <c r="AF59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59" s="2">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>251231</v>
+        <v>252665</v>
       </c>
       <c r="B60" s="3">
-        <v>45846</v>
+        <v>45844</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D60" s="3">
-        <v>45841</v>
+        <v>45902</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2">
-        <v>37477</v>
+        <v>5865</v>
       </c>
       <c r="G60" s="2">
-        <v>2637</v>
+        <v>300</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J60" s="2">
-        <v>215</v>
+        <v>775</v>
       </c>
       <c r="K60" s="2">
-        <v>1075</v>
+        <v>775</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>67</v>
@@ -6696,7 +6782,7 @@
         <v>48</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="Y60" s="4" t="s">
         <v>50</v>
@@ -6723,54 +6809,48 @@
         <v>0</v>
       </c>
       <c r="AG60" s="2">
-        <v>160</v>
-      </c>
-      <c r="AH60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI60" s="2">
-        <v>40034</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>252814</v>
+        <v>252285</v>
       </c>
       <c r="B61" s="3">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="3">
-        <v>45852</v>
+        <v>45840</v>
       </c>
       <c r="E61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="2">
-        <v>6010</v>
+        <v>5537</v>
       </c>
       <c r="G61" s="2">
         <v>300</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J61" s="2">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K61" s="2">
-        <v>615</v>
+        <v>675</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>89</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>39</v>
@@ -6779,7 +6859,7 @@
         <v>40</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>42</v>
@@ -6788,7 +6868,7 @@
         <v>43</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="T61" s="4" t="s">
         <v>45</v>
@@ -6830,48 +6910,54 @@
         <v>0</v>
       </c>
       <c r="AG61" s="2">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="AH61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI61" s="2">
+        <v>40032</v>
       </c>
     </row>
-    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>252284</v>
+        <v>252071</v>
       </c>
       <c r="B62" s="3">
-        <v>45846</v>
+        <v>45838</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D62" s="3">
-        <v>45840</v>
+        <v>45820</v>
       </c>
       <c r="E62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>6152</v>
+        <v>5488</v>
       </c>
       <c r="G62" s="2">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="2">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="K62" s="2">
-        <v>570</v>
+        <v>1004</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>39</v>
@@ -6880,7 +6966,7 @@
         <v>40</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>42</v>
@@ -6889,7 +6975,7 @@
         <v>43</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T62" s="4" t="s">
         <v>45</v>
@@ -6928,57 +7014,51 @@
         <v>56</v>
       </c>
       <c r="AF62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62" s="2">
-        <v>33</v>
-      </c>
-      <c r="AH62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI62" s="2">
-        <v>40032</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>252285</v>
+        <v>244828</v>
       </c>
       <c r="B63" s="3">
         <v>45845</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D63" s="3">
-        <v>45840</v>
+        <v>45845</v>
       </c>
       <c r="E63" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>5537</v>
+        <v>5203</v>
       </c>
       <c r="G63" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J63" s="2">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="K63" s="2">
-        <v>675</v>
+        <v>1080</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>39</v>
@@ -6987,22 +7067,22 @@
         <v>40</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T63" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="V63" s="4" t="s">
         <v>47</v>
@@ -7011,7 +7091,7 @@
         <v>48</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="Y63" s="4" t="s">
         <v>50</v>
@@ -7035,57 +7115,51 @@
         <v>56</v>
       </c>
       <c r="AF63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>241783</v>
+      </c>
+      <c r="B64" s="6">
+        <v>45845</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="6">
+        <v>45905</v>
+      </c>
+      <c r="E64" s="5">
         <v>0</v>
       </c>
-      <c r="AG63" s="2">
-        <v>24</v>
-      </c>
-      <c r="AH63" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI63" s="2">
-        <v>40032</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>252636</v>
-      </c>
-      <c r="B64" s="3">
-        <v>45842</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="3">
-        <v>45848</v>
-      </c>
-      <c r="E64" s="2">
-        <v>6</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1353</v>
+      <c r="F64" s="5">
+        <v>5199</v>
       </c>
       <c r="G64" s="2">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J64" s="2">
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="K64" s="2">
-        <v>780</v>
+        <v>960</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>39</v>
@@ -7094,7 +7168,7 @@
         <v>40</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>42</v>
@@ -7103,7 +7177,7 @@
         <v>43</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T64" s="4" t="s">
         <v>45</v>
@@ -7142,45 +7216,45 @@
         <v>56</v>
       </c>
       <c r="AF64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>252345</v>
+      </c>
+      <c r="B65" s="6">
+        <v>45842</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="6">
+        <v>45846</v>
+      </c>
+      <c r="E65" s="5">
         <v>0</v>
       </c>
-      <c r="AG64" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>252652</v>
-      </c>
-      <c r="B65" s="3">
-        <v>45845</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="3">
-        <v>45855</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>22321</v>
+      <c r="F65" s="5">
+        <v>5199</v>
       </c>
       <c r="G65" s="2">
-        <v>1000</v>
+        <v>330</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J65" s="2">
-        <v>280</v>
+        <v>405</v>
       </c>
       <c r="K65" s="2">
-        <v>560</v>
+        <v>810</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>67</v>
@@ -7243,18 +7317,18 @@
         <v>0</v>
       </c>
       <c r="AG65" s="2">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>251685</v>
+        <v>252997</v>
       </c>
       <c r="B66" s="3">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D66" s="3">
         <v>45853</v>
@@ -7263,28 +7337,28 @@
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>11851</v>
+        <v>4802</v>
       </c>
       <c r="G66" s="2">
-        <v>1100</v>
+        <v>557</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="2">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="K66" s="2">
-        <v>1000</v>
+        <v>1224</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>38</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>39</v>
@@ -7293,7 +7367,7 @@
         <v>40</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q66" s="4" t="s">
         <v>42</v>
@@ -7302,7 +7376,7 @@
         <v>43</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="T66" s="4" t="s">
         <v>45</v>
@@ -7317,7 +7391,7 @@
         <v>48</v>
       </c>
       <c r="X66" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="Y66" s="4" t="s">
         <v>50</v>
@@ -7341,51 +7415,42 @@
         <v>56</v>
       </c>
       <c r="AF66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="2">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>252549</v>
+        <v>252417</v>
       </c>
       <c r="B67" s="3">
-        <v>45847</v>
+        <v>45840</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D67" s="3">
-        <v>45858</v>
+        <v>45838</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F67" s="2">
-        <v>11111</v>
+        <v>4711</v>
       </c>
       <c r="G67" s="2">
-        <v>500</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="K67" s="2">
-        <v>580</v>
+        <v>720</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>39</v>
@@ -7394,37 +7459,37 @@
         <v>40</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="Q67" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="S67" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T67" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="V67" s="4" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="W67" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="Y67" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AA67" s="4" t="s">
         <v>52</v>
@@ -7445,45 +7510,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>252978</v>
+        <v>252087</v>
       </c>
       <c r="B68" s="3">
         <v>45845</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D68" s="3">
-        <v>45824</v>
+        <v>45837</v>
       </c>
       <c r="E68" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2">
-        <v>2796</v>
+        <v>4260</v>
       </c>
       <c r="G68" s="2">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="2">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="K68" s="2">
-        <v>1160</v>
+        <v>720</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>39</v>
@@ -7492,7 +7557,7 @@
         <v>40</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q68" s="4" t="s">
         <v>42</v>
@@ -7501,7 +7566,7 @@
         <v>43</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="T68" s="4" t="s">
         <v>45</v>
@@ -7516,7 +7581,7 @@
         <v>48</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="Y68" s="4" t="s">
         <v>50</v>
@@ -7542,49 +7607,46 @@
       <c r="AF68" s="2">
         <v>1</v>
       </c>
-      <c r="AG68" s="2">
-        <v>12</v>
-      </c>
     </row>
-    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>252785</v>
+        <v>252201</v>
       </c>
       <c r="B69" s="3">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D69" s="3">
-        <v>45862</v>
+        <v>45828</v>
       </c>
       <c r="E69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>6690</v>
+        <v>4093</v>
       </c>
       <c r="G69" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J69" s="2">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="K69" s="2">
-        <v>425</v>
+        <v>720</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>39</v>
@@ -7593,7 +7655,7 @@
         <v>40</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q69" s="4" t="s">
         <v>42</v>
@@ -7602,7 +7664,7 @@
         <v>43</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="T69" s="4" t="s">
         <v>45</v>
@@ -7641,15 +7703,15 @@
         <v>56</v>
       </c>
       <c r="AF69" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG69" s="2">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>252784</v>
+        <v>251849</v>
       </c>
       <c r="B70" s="3">
         <v>45846</v>
@@ -7658,31 +7720,28 @@
         <v>75</v>
       </c>
       <c r="D70" s="3">
-        <v>45862</v>
+        <v>45833</v>
       </c>
       <c r="E70" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2">
-        <v>3237</v>
+        <v>4006</v>
       </c>
       <c r="G70" s="2">
-        <v>165</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="2">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="K70" s="2">
-        <v>425</v>
+        <v>768</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>67</v>
@@ -7742,15 +7801,18 @@
         <v>56</v>
       </c>
       <c r="AF70" s="2">
-        <v>4</v>
-      </c>
-      <c r="AG70" s="2">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI70" s="2">
+        <v>40042</v>
       </c>
     </row>
-    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>252783</v>
+        <v>252085</v>
       </c>
       <c r="B71" s="3">
         <v>45846</v>
@@ -7759,28 +7821,28 @@
         <v>75</v>
       </c>
       <c r="D71" s="3">
-        <v>45862</v>
+        <v>45826</v>
       </c>
       <c r="E71" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F71" s="2">
-        <v>1434</v>
+        <v>3426</v>
       </c>
       <c r="G71" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J71" s="2">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K71" s="2">
-        <v>425</v>
+        <v>900</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>101</v>
@@ -7843,92 +7905,146 @@
         <v>56</v>
       </c>
       <c r="AF71" s="2">
-        <v>4</v>
-      </c>
-      <c r="AG71" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>252983</v>
+        <v>252152</v>
       </c>
       <c r="B72" s="3">
-        <v>45847</v>
+        <v>45842</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D72" s="3">
-        <v>45862</v>
+        <v>45828</v>
       </c>
       <c r="E72" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2">
-        <v>1912</v>
+        <v>3284</v>
       </c>
       <c r="G72" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J72" s="2">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="K72" s="2">
-        <v>425</v>
+        <v>1005</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z72" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE72" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="AF72" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>252157</v>
+        <v>252784</v>
       </c>
       <c r="B73" s="3">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="3">
-        <v>45826</v>
+        <v>45862</v>
       </c>
       <c r="E73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>47619</v>
+        <v>3237</v>
       </c>
       <c r="G73" s="2">
-        <v>1000</v>
+        <v>165</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J73" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73" s="2">
-        <v>688</v>
+        <v>425</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>67</v>
@@ -7988,42 +8104,51 @@
         <v>56</v>
       </c>
       <c r="AF73" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG73" s="2">
-        <v>344</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>252980</v>
+        <v>252402</v>
       </c>
       <c r="B74" s="3">
-        <v>45844</v>
+        <v>45840</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D74" s="3">
-        <v>45908</v>
+        <v>45835</v>
       </c>
       <c r="E74" s="2">
         <v>6</v>
       </c>
       <c r="F74" s="2">
-        <v>2049</v>
+        <v>3009</v>
       </c>
       <c r="G74" s="2">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>103</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="J74" s="2">
+        <v>255</v>
       </c>
       <c r="K74" s="2">
-        <v>700</v>
+        <v>1020</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>39</v>
@@ -8032,37 +8157,37 @@
         <v>40</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q74" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="S74" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="T74" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="W74" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="Y74" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="AA74" s="4" t="s">
         <v>52</v>
@@ -8080,12 +8205,15 @@
         <v>56</v>
       </c>
       <c r="AF74" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG74" s="2">
+        <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>252997</v>
+        <v>252978</v>
       </c>
       <c r="B75" s="3">
         <v>45845</v>
@@ -8094,34 +8222,34 @@
         <v>35</v>
       </c>
       <c r="D75" s="3">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2">
-        <v>4802</v>
+        <v>2796</v>
       </c>
       <c r="G75" s="2">
-        <v>557</v>
+        <v>245</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J75" s="2">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="K75" s="2">
-        <v>1224</v>
+        <v>1160</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>39</v>
@@ -8139,7 +8267,7 @@
         <v>43</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="T75" s="4" t="s">
         <v>45</v>
@@ -8154,7 +8282,7 @@
         <v>48</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="Y75" s="4" t="s">
         <v>50</v>
@@ -8184,42 +8312,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>252999</v>
+        <v>243569</v>
       </c>
       <c r="B76" s="3">
-        <v>45844</v>
+        <v>45561</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D76" s="3">
-        <v>45875</v>
+        <v>45551</v>
       </c>
       <c r="E76" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2">
-        <v>39101</v>
+        <v>2601</v>
       </c>
       <c r="G76" s="2">
-        <v>2000</v>
+        <v>364</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J76" s="2">
-        <v>765</v>
+        <v>570</v>
       </c>
       <c r="K76" s="2">
-        <v>765</v>
+        <v>1140</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>39</v>
@@ -8228,7 +8356,7 @@
         <v>40</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q76" s="4" t="s">
         <v>42</v>
@@ -8237,7 +8365,7 @@
         <v>43</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="T76" s="4" t="s">
         <v>45</v>
@@ -8252,7 +8380,7 @@
         <v>48</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="Y76" s="4" t="s">
         <v>50</v>
@@ -8276,51 +8404,42 @@
         <v>56</v>
       </c>
       <c r="AF76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76" s="2">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>251926</v>
+        <v>252980</v>
       </c>
       <c r="B77" s="3">
-        <v>45848</v>
+        <v>45844</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D77" s="3">
-        <v>45847</v>
+        <v>45908</v>
       </c>
       <c r="E77" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F77" s="2">
-        <v>9470</v>
+        <v>2049</v>
       </c>
       <c r="G77" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J77" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="K77" s="2">
-        <v>660</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>67</v>
+        <v>700</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>39</v>
@@ -8329,37 +8448,37 @@
         <v>40</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="Q77" s="4" t="s">
         <v>42</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="T77" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U77" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="V77" s="4" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="W77" s="4" t="s">
         <v>48</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="Y77" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="AA77" s="4" t="s">
         <v>52</v>
@@ -8379,132 +8498,72 @@
       <c r="AF77" s="2">
         <v>0</v>
       </c>
-      <c r="AG77" s="2">
-        <v>42</v>
-      </c>
     </row>
-    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>251495</v>
+        <v>252983</v>
       </c>
       <c r="B78" s="3">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D78" s="3">
-        <v>45847</v>
+        <v>45862</v>
       </c>
       <c r="E78" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F78" s="2">
-        <v>8681</v>
+        <v>1912</v>
       </c>
       <c r="G78" s="2">
-        <v>500</v>
+        <v>97</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J78" s="2">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="K78" s="2">
-        <v>700</v>
+        <v>425</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T78" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U78" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W78" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X78" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y78" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB78" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC78" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD78" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE78" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AF78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="2">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>252456</v>
+        <v>252790</v>
       </c>
       <c r="B79" s="3">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D79" s="3">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="E79" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F79" s="2">
-        <v>17335</v>
+        <v>1453</v>
       </c>
       <c r="G79" s="2">
-        <v>800</v>
+        <v>106</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>116</v>
@@ -8513,13 +8572,13 @@
         <v>37</v>
       </c>
       <c r="J79" s="2">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="K79" s="2">
-        <v>696</v>
+        <v>800</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>67</v>
@@ -8582,15 +8641,15 @@
         <v>0</v>
       </c>
       <c r="AG79" s="2">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>252899</v>
+        <v>252783</v>
       </c>
       <c r="B80" s="3">
-        <v>45849</v>
+        <v>45846</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>75</v>
@@ -8599,28 +8658,28 @@
         <v>45862</v>
       </c>
       <c r="E80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2">
-        <v>21668</v>
+        <v>1434</v>
       </c>
       <c r="G80" s="2">
-        <v>1000</v>
+        <v>73</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J80" s="2">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="K80" s="2">
-        <v>690</v>
+        <v>425</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>67</v>
@@ -8680,48 +8739,48 @@
         <v>56</v>
       </c>
       <c r="AF80" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG80" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>252467</v>
+        <v>252636</v>
       </c>
       <c r="B81" s="3">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="3">
-        <v>45855</v>
+        <v>45848</v>
       </c>
       <c r="E81" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F81" s="2">
-        <v>9740</v>
+        <v>1353</v>
       </c>
       <c r="G81" s="2">
-        <v>660</v>
+        <v>71</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J81" s="2">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="K81" s="2">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>67</v>
@@ -8783,43 +8842,46 @@
       <c r="AF81" s="2">
         <v>0</v>
       </c>
+      <c r="AG81" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>252755</v>
+        <v>244023</v>
       </c>
       <c r="B82" s="3">
-        <v>45848</v>
+        <v>45552</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D82" s="3">
-        <v>45855</v>
+        <v>45565</v>
       </c>
       <c r="E82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>13149</v>
+        <v>997</v>
       </c>
       <c r="G82" s="2">
-        <v>500</v>
+        <v>59</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J82" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K82" s="2">
-        <v>570</v>
+        <v>860</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>67</v>
@@ -8882,17 +8944,14 @@
         <v>0</v>
       </c>
       <c r="AG82" s="2">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AI82" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="252686"/>
-        <filter val="252899"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI82">
+      <sortCondition descending="1" ref="F1:F82"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
